--- a/biology/Zoologie/Climacograptus/Climacograptus.xlsx
+++ b/biology/Zoologie/Climacograptus/Climacograptus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Climacograptus est un genre fossile de graptolites, des animaux vivant en colonies et rattachés à l'embranchement des Hemichordata, à l'ordre des Graptoloidea et de la famille des Diplograptidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (13 octobre 2019)[2], le genre fait partie de l'ordre des Graptoloidea, du sous-ordre éteint des Axonophora Frech, 1897, de l'infra-ordre également des Diplograptina Lapworth, 1880 et de la famille des Climacograptidae Frech, 1897. Elle comporte 2 espèces :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (13 octobre 2019), le genre fait partie de l'ordre des Graptoloidea, du sous-ordre éteint des Axonophora Frech, 1897, de l'infra-ordre également des Diplograptina Lapworth, 1880 et de la famille des Climacograptidae Frech, 1897. Elle comporte 2 espèces :
 †Climacograptus miserabilis Elles &amp; Wood, 1906
 †Climacograptus wilsoni (Lapworth, 1876)
 et il y a 11 noms en synonymie :
@@ -528,7 +542,7 @@
 †Climacograptus toernquisti Elles &amp; Wood, 1906, un synonyme de †Rhaphidograptus toernquisti (Elles &amp; Wood, 1906)
 †Climacograptus törnquisti, un synonyme de †Rhaphidograptus toernquisti (Elles &amp; Wood, 1906)
 †Climacograptus tubuliferus Lapworth, 1876, un synonyme de †Styracograptus tubuliferus (Lapworth, 1876)
-Selon Paleobiology Database                   (13 octobre 2019)[3], le genre fait partie de l'ordre éteint des Diplograptoidea Lapworth, 1880 et de la super-familles des Climacograptoidea Frech, 1897. Elle comporte les sous-genres et espèces suivants :
+Selon Paleobiology Database                   (13 octobre 2019), le genre fait partie de l'ordre éteint des Diplograptoidea Lapworth, 1880 et de la super-familles des Climacograptoidea Frech, 1897. Elle comporte les sous-genres et espèces suivants :
 †Climacograptus (Climacograptus)
 †Climacograptus (Climacograptus) bicornis
 †Climacograptus (Dicranograptus) Hall, 1865
@@ -540,31 +554,65 @@
 †Climacograptus typicalis
 et il y a un nom en synonymie:
 †Climacograptus extraordinarius, un synonyme de †Normalograptus extraordinarius Sobolevskaya, 1974
-Selon World Register of Marine Species                               (13 octobre 2019)[4], le genre fait partie de l'ordre des Graptoloidea, de famille des Diplograptidae et comporte les espèces suivantes :
+Selon World Register of Marine Species                               (13 octobre 2019), le genre fait partie de l'ordre des Graptoloidea, de famille des Diplograptidae et comporte les espèces suivantes :
 †Climacograptus affinis T.S. Hall, 1900
 †Climacograptus baragwanathi T.S. Hall, 1906
 †Climacograptus cruciformis VandenBerg, 1990
 †Climacograptus missilis Keble &amp; Harris, 1925
 †Climacograptus tridentatus Lapworth, 1876
-†Climacograptus uncinatus Keble &amp; Harris, 1934
-Résumé des noms d'espèces
-†Climacograptus affinis T.S. Hall, 1900
+†Climacograptus uncinatus Keble &amp; Harris, 1934</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Climacograptus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Climacograptus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Résumé des noms d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>†Climacograptus affinis T.S. Hall, 1900
 †Climacograptus baragwanathi T.S. Hall, 1906
 †Climacograptus (Climacograptus)
 †Climacograptus (Climacograptus) bicornis (syn. †Climacograptus bicornis J. Hall, 1847 ou †Climacograptus bicornis bicornis J. Hall, 1847)
 †Climacograptus cruciformis VandenBerg, 1990
 †Climacograptus (Dicranograptus) Hall, 1865
-†Climacograptus hastatus T.S. Hall[5]
+†Climacograptus hastatus T.S. Hall
 †Climacograptus miserabilis Elles &amp; Wood, 1906
 †Climacograptus missilis Keble &amp; Harris, 1925
 †Climacograptus nevadensis
-†Climacograptus prominens elongatus[6]
+†Climacograptus prominens elongatus
 †Climacograptus putillus
-†Climacograptus scalaris (Linné?) (Hisinger)[7]
-†Climacograptus spiniferus Ruedemann[8]
+†Climacograptus scalaris (Linné?) (Hisinger)
+†Climacograptus spiniferus Ruedemann
 †Climacograptus styloideus
 †Climacograptus tridentatus Lapworth, 1876
-†Climacograptus typicalis Hall[9]
+†Climacograptus typicalis Hall
 †Climacograptus uncinatus Keble &amp; Harris, 1934
 †Climacograptus wilsoni (Lapworth, 1876)
 noms en synonymie
